--- a/data/trans_orig/P51_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P51_2-Provincia-trans_orig.xlsx
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5797</v>
+        <v>6264</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1154723772323292</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3303077629606536</v>
+        <v>0.3569540146557515</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6755</v>
+        <v>7116</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02399874172329976</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08000220511015163</v>
+        <v>0.08427431487621637</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5061</v>
+        <v>4450</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01314163328834498</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07565844091709048</v>
+        <v>0.0665279993242365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3646</v>
+        <v>4457</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01041039426245428</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04317988168575466</v>
+        <v>0.05278642834969767</v>
       </c>
     </row>
     <row r="6">
@@ -915,7 +915,7 @@
         <v>66009</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61827</v>
+        <v>62438</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>66888</v>
@@ -924,7 +924,7 @@
         <v>0.9868583667116551</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9243415590829087</v>
+        <v>0.9334720006757631</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>15523</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11752</v>
+        <v>11285</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>17549</v>
@@ -945,7 +945,7 @@
         <v>0.8845276227676708</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6696922370393464</v>
+        <v>0.6430459853442485</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -957,19 +957,19 @@
         <v>81532</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76357</v>
+        <v>76551</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83566</v>
+        <v>83571</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.965590864014246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9043112296177718</v>
+        <v>0.9066046622494569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9896870608662908</v>
+        <v>0.9897421138733846</v>
       </c>
     </row>
     <row r="8">
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3961</v>
+        <v>4859</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007998783346183626</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03285580723911552</v>
+        <v>0.04030432735839466</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4900</v>
+        <v>5521</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005564155581472232</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02827067346204106</v>
+        <v>0.03185585736660671</v>
       </c>
     </row>
     <row r="10">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7067</v>
+        <v>6897</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04171339687784765</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1339605502100925</v>
+        <v>0.1307325425469456</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6970</v>
+        <v>6992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01269650518133962</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04021527442076769</v>
+        <v>0.04033990395509411</v>
       </c>
     </row>
     <row r="11">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4271</v>
+        <v>4788</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007853701173233345</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03542229548677023</v>
+        <v>0.03971360411169436</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4760</v>
+        <v>4744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005463232760156089</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0274647276463119</v>
+        <v>0.0273731094664942</v>
       </c>
     </row>
     <row r="12">
@@ -1250,7 +1250,7 @@
         <v>118659</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114837</v>
+        <v>114801</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>120570</v>
@@ -1259,7 +1259,7 @@
         <v>0.984147515480583</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9524532182860812</v>
+        <v>0.9521554942182143</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>50555</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45689</v>
+        <v>45859</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>52756</v>
@@ -1280,7 +1280,7 @@
         <v>0.9582866031221523</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8660394497899074</v>
+        <v>0.8692674574530548</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1292,19 +1292,19 @@
         <v>169213</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>163086</v>
+        <v>163221</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>172324</v>
+        <v>172336</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.976276106477032</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9409258139858402</v>
+        <v>0.9417048507334044</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9942251194619425</v>
+        <v>0.9942919274556109</v>
       </c>
     </row>
     <row r="13">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4195</v>
+        <v>4203</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05795712493340853</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2466144546817566</v>
+        <v>0.2470818811339305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5015</v>
+        <v>4078</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01595270752698406</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08114602792958742</v>
+        <v>0.06598758546779987</v>
       </c>
     </row>
     <row r="15">
@@ -1566,7 +1566,7 @@
         <v>16024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12815</v>
+        <v>12807</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>17010</v>
@@ -1575,7 +1575,7 @@
         <v>0.9420428750665915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7533855453182434</v>
+        <v>0.7529181188660695</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1587,7 +1587,7 @@
         <v>60814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56785</v>
+        <v>57722</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>61800</v>
@@ -1596,7 +1596,7 @@
         <v>0.9840472924730159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9188539720704124</v>
+        <v>0.9340124145322001</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4754</v>
+        <v>4638</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007768257489769332</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03996049004478038</v>
+        <v>0.03899275411542362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8543</v>
+        <v>9540</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03400740035732348</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1556766889937006</v>
+        <v>0.173839037909422</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10130</v>
+        <v>10353</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01605182257963715</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05827216119516131</v>
+        <v>0.05955656865035831</v>
       </c>
     </row>
     <row r="20">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4457</v>
+        <v>4404</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007371559149461564</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03746503596097256</v>
+        <v>0.03702408008795674</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4524</v>
+        <v>4368</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.005044395097777453</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02602672848061603</v>
+        <v>0.0251268374759261</v>
       </c>
     </row>
     <row r="22">
@@ -1872,7 +1872,7 @@
         <v>117155</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>112619</v>
+        <v>112459</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>118956</v>
@@ -1881,7 +1881,7 @@
         <v>0.9848601833607691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9467313157228493</v>
+        <v>0.9453873328210199</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>53013</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46336</v>
+        <v>45339</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>54879</v>
@@ -1902,7 +1902,7 @@
         <v>0.9659925996426765</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8443233110062963</v>
+        <v>0.8261609620905865</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1914,19 +1914,19 @@
         <v>170167</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>163754</v>
+        <v>163010</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>172961</v>
+        <v>172946</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9789037823225853</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.942011613892609</v>
+        <v>0.9377356664750814</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9949795767232956</v>
+        <v>0.9948915718836447</v>
       </c>
     </row>
     <row r="23">
@@ -2018,19 +2018,19 @@
         <v>3209</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1010</v>
+        <v>1023</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8367</v>
+        <v>8426</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08370728628400569</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02635993523839622</v>
+        <v>0.02668237191757092</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2182767146496699</v>
+        <v>0.2198124912604482</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2042,16 +2042,16 @@
         <v>1015</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7086</v>
+        <v>7154</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2672241494683441</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08521170543365636</v>
+        <v>0.08516832841416044</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5946438812674627</v>
+        <v>0.6003554631265199</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2060,19 +2060,19 @@
         <v>6393</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11893</v>
+        <v>12602</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.127227385639173</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04318366346974881</v>
+        <v>0.0432505285065015</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2366830922569176</v>
+        <v>0.2507781315312823</v>
       </c>
     </row>
     <row r="25">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6385</v>
+        <v>6337</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05510456212725359</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1665676736030271</v>
+        <v>0.1653114839881475</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6387</v>
+        <v>7440</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04203679289292347</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1271000059751417</v>
+        <v>0.1480667684123185</v>
       </c>
     </row>
     <row r="27">
@@ -2199,19 +2199,19 @@
         <v>33012</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27532</v>
+        <v>27041</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36248</v>
+        <v>36253</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8611881515887407</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7182348785214736</v>
+        <v>0.7054228109887365</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9456145372013648</v>
+        <v>0.9457340466759278</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -2220,7 +2220,7 @@
         <v>8732</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4830</v>
+        <v>4762</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>10901</v>
@@ -2229,10 +2229,10 @@
         <v>0.7327758505316559</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4053561187325374</v>
+        <v>0.3996445368734802</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9147882945663437</v>
+        <v>0.9148316715858396</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>40</v>
@@ -2241,19 +2241,19 @@
         <v>41744</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>36240</v>
+        <v>35308</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>46118</v>
+        <v>46008</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8307358214679035</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7211913701980428</v>
+        <v>0.7026412855478562</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9177653506282892</v>
+        <v>0.9155754960088768</v>
       </c>
     </row>
     <row r="28">
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5784</v>
+        <v>4870</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01755169709256628</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1058722111391387</v>
+        <v>0.08915090816478935</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4749</v>
+        <v>4886</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01387953398282831</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06874148623561642</v>
+        <v>0.07072011960658038</v>
       </c>
     </row>
     <row r="30">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4891</v>
+        <v>4961</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01787593160329837</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08952510506460398</v>
+        <v>0.09081903890172111</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4134</v>
+        <v>4802</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01413593220383099</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0598432014952426</v>
+        <v>0.06951708539440413</v>
       </c>
     </row>
     <row r="31">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5100</v>
+        <v>4109</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01787593160329837</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09336292715778667</v>
+        <v>0.07522014197792551</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4028</v>
+        <v>5007</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01413593220383099</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05830092429589406</v>
+        <v>0.07247198348219858</v>
       </c>
     </row>
     <row r="32">
@@ -2534,19 +2534,19 @@
         <v>51717</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>46967</v>
+        <v>46718</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>53764</v>
+        <v>53693</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9466964397008369</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8597362992778271</v>
+        <v>0.855187331240752</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9841671867669737</v>
+        <v>0.9828741575082746</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2568,19 +2568,19 @@
         <v>66171</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>61219</v>
+        <v>62032</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68149</v>
+        <v>68167</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9578486016095097</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8861628629248477</v>
+        <v>0.8979394212447113</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9864760800153515</v>
+        <v>0.9867464797662239</v>
       </c>
     </row>
     <row r="33">
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9770</v>
+        <v>11361</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02410548521428754</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07814012211946078</v>
+        <v>0.09086603145240064</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4967</v>
+        <v>5039</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01507900814345399</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07625279239390274</v>
+        <v>0.07735707308240902</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2714,19 +2714,19 @@
         <v>3996</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12710</v>
+        <v>12763</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02101349128328331</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.005047602283854898</v>
+        <v>0.00504339215519096</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06683224922165713</v>
+        <v>0.06711503653986808</v>
       </c>
     </row>
     <row r="35">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5465</v>
+        <v>4936</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01507900814345399</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.083890717844536</v>
+        <v>0.07577214982308123</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5121</v>
+        <v>5034</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005165271157202146</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02692644808993222</v>
+        <v>0.026469214635421</v>
       </c>
     </row>
     <row r="37">
@@ -2853,7 +2853,7 @@
         <v>122015</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>115259</v>
+        <v>113668</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>125029</v>
@@ -2862,7 +2862,7 @@
         <v>0.9758945147857124</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.921859877880539</v>
+        <v>0.9091339685475996</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -2874,7 +2874,7 @@
         <v>63178</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>58242</v>
+        <v>59060</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>65143</v>
@@ -2883,7 +2883,7 @@
         <v>0.969841983713092</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8940634978177135</v>
+        <v>0.906623539807474</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -2895,19 +2895,19 @@
         <v>185194</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>177114</v>
+        <v>176829</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>189179</v>
+        <v>189176</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9738212375595146</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.931333663371401</v>
+        <v>0.9298359253434854</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.994776217574657</v>
+        <v>0.994764701138432</v>
       </c>
     </row>
     <row r="38">
@@ -2999,19 +2999,19 @@
         <v>6509</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2204</v>
+        <v>2155</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>15569</v>
+        <v>13961</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0536709527342436</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01817469892874891</v>
+        <v>0.01776823353589031</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1283730653408442</v>
+        <v>0.1151141615470301</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -3023,16 +3023,16 @@
         <v>1195</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12073</v>
+        <v>12169</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.09778078339488105</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02212569201384162</v>
+        <v>0.022120656787118</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2234573314544589</v>
+        <v>0.22522973010412</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>9</v>
@@ -3041,19 +3041,19 @@
         <v>11792</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>5464</v>
+        <v>5595</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>20823</v>
+        <v>21313</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.06726566145491145</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03116605750899371</v>
+        <v>0.03191426457109678</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1187794304369423</v>
+        <v>0.121573800232192</v>
       </c>
     </row>
     <row r="40">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5100</v>
+        <v>4697</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007726193856989684</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04205076610935498</v>
+        <v>0.03872669843269429</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5401</v>
+        <v>5240</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02148501633887175</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09995481332314099</v>
+        <v>0.0969755772452337</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7633</v>
+        <v>7165</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0119666813215557</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04353832726118277</v>
+        <v>0.0408731527560151</v>
       </c>
     </row>
     <row r="41">
@@ -3141,19 +3141,19 @@
         <v>3831</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>964</v>
+        <v>987</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9397</v>
+        <v>9755</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03158522980747292</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.007949347743700303</v>
+        <v>0.00813676432593078</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07748563940431852</v>
+        <v>0.08043951446238191</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5394</v>
+        <v>5445</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01958905513423724</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09983653195553797</v>
+        <v>0.1007863136732464</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -3183,19 +3183,19 @@
         <v>4889</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1745</v>
+        <v>1913</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10632</v>
+        <v>10225</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02788799275164299</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.009952655838711221</v>
+        <v>0.01090984589942095</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06065051358815639</v>
+        <v>0.05832900574487448</v>
       </c>
     </row>
     <row r="42">
@@ -3212,19 +3212,19 @@
         <v>110000</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>100666</v>
+        <v>101115</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>115188</v>
+        <v>116084</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9070176236012938</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8300477738310307</v>
+        <v>0.8337548515330846</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9497896747762409</v>
+        <v>0.9571775274737638</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>43</v>
@@ -3233,19 +3233,19 @@
         <v>46528</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>39584</v>
+        <v>39596</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>50767</v>
+        <v>50658</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8611451451320099</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.7326250464982391</v>
+        <v>0.732845022900671</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9395983795072771</v>
+        <v>0.9375895876435192</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>148</v>
@@ -3254,19 +3254,19 @@
         <v>156528</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>147037</v>
+        <v>145291</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>164357</v>
+        <v>163599</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.8928796644718898</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.838742591169616</v>
+        <v>0.828782080125229</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9375401208189218</v>
+        <v>0.9332142236541784</v>
       </c>
     </row>
     <row r="43">
@@ -3358,19 +3358,19 @@
         <v>15579</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9070</v>
+        <v>8954</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26469</v>
+        <v>27537</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02256291403642706</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01313552299743297</v>
+        <v>0.01296819063861532</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03833420173433658</v>
+        <v>0.03988145597210689</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>12</v>
@@ -3379,19 +3379,19 @@
         <v>14328</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>7236</v>
+        <v>7256</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>24112</v>
+        <v>23652</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.04979655523020632</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0251478819277734</v>
+        <v>0.02521838021995134</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.08379868199864487</v>
+        <v>0.08220178155579326</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>25</v>
@@ -3400,19 +3400,19 @@
         <v>29907</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>19886</v>
+        <v>20248</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>44425</v>
+        <v>45117</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03057358778824634</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02032902658211087</v>
+        <v>0.02069903097855274</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04541464455686597</v>
+        <v>0.04612224287471098</v>
       </c>
     </row>
     <row r="45">
@@ -3429,19 +3429,19 @@
         <v>2793</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>7602</v>
+        <v>7457</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.004044458356208609</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001268042485590738</v>
+        <v>0.001266327633661513</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01101017362830814</v>
+        <v>0.01079957728147238</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>3</v>
@@ -3450,19 +3450,19 @@
         <v>3361</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>9169</v>
+        <v>8307</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.01168243998147346</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.00351618705098789</v>
+        <v>0.003498379142848106</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.03186756505249355</v>
+        <v>0.02886907469240194</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>6</v>
@@ -3471,19 +3471,19 @@
         <v>6154</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2140</v>
+        <v>2484</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>12509</v>
+        <v>12775</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.006291142098827762</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.002188155435101787</v>
+        <v>0.002539296186228553</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01278802100270727</v>
+        <v>0.01305988534427264</v>
       </c>
     </row>
     <row r="46">
@@ -3500,19 +3500,19 @@
         <v>8743</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3936</v>
+        <v>4036</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>16716</v>
+        <v>15534</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01266273525077658</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005700854249818096</v>
+        <v>0.005844774255272678</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02421008708209576</v>
+        <v>0.02249782120149239</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>7156</v>
+        <v>7183</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.007092215266974527</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02486838636580882</v>
+        <v>0.02496340159747462</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>11</v>
@@ -3542,19 +3542,19 @@
         <v>10784</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>5621</v>
+        <v>5839</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>18687</v>
+        <v>18564</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01102418762136811</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.005746114244993225</v>
+        <v>0.005969489589997197</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01910316985113243</v>
+        <v>0.01897717179447368</v>
       </c>
     </row>
     <row r="47">
@@ -3571,19 +3571,19 @@
         <v>663357</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>651034</v>
+        <v>650740</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>672101</v>
+        <v>672237</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9607298923565878</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.942882914714661</v>
+        <v>0.9424561080046095</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9733929712126985</v>
+        <v>0.9735902823020773</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>253</v>
@@ -3592,19 +3592,19 @@
         <v>268006</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>256741</v>
+        <v>257243</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>276099</v>
+        <v>276184</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9314287895213457</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8922808584963461</v>
+        <v>0.8940249168712037</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9595556729352617</v>
+        <v>0.9598519512837533</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>884</v>
@@ -3613,19 +3613,19 @@
         <v>931363</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>915357</v>
+        <v>916200</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>944841</v>
+        <v>943202</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9521110824915578</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9357486259512237</v>
+        <v>0.9366105148070916</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9658893312877455</v>
+        <v>0.9642142456547032</v>
       </c>
     </row>
     <row r="48">
@@ -4055,19 +4055,19 @@
         <v>3583</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9109</v>
+        <v>8848</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06054351496105724</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01624293360065208</v>
+        <v>0.01668873115214646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1539293099052519</v>
+        <v>0.149517107467129</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4089,19 +4089,19 @@
         <v>3583</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9411</v>
+        <v>9853</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05017784269906546</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01369482500903471</v>
+        <v>0.01370910974474623</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1318142883262733</v>
+        <v>0.1379944059587999</v>
       </c>
     </row>
     <row r="7">
@@ -4118,19 +4118,19 @@
         <v>55592</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50066</v>
+        <v>50327</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58214</v>
+        <v>58187</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9394564850389427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8460706900947482</v>
+        <v>0.85048289253287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9837570663993479</v>
+        <v>0.9833112688478535</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4152,19 +4152,19 @@
         <v>67816</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61988</v>
+        <v>61546</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>70421</v>
+        <v>70420</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9498221573009346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8681857116737267</v>
+        <v>0.8620055940412006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9863051749909653</v>
+        <v>0.9862908902552537</v>
       </c>
     </row>
     <row r="8">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5285</v>
+        <v>5472</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01374476506068483</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06998868478732889</v>
+        <v>0.07246077692907808</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5680</v>
+        <v>5211</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01006829003245682</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05509402428074404</v>
+        <v>0.05054341323706409</v>
       </c>
     </row>
     <row r="10">
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5518</v>
+        <v>5712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0147645859127473</v>
@@ -4331,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07306352636807172</v>
+        <v>0.07564296974255816</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4872</v>
+        <v>5561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01081532732806561</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0472545091351781</v>
+        <v>0.0539431055766869</v>
       </c>
     </row>
     <row r="11">
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4112</v>
+        <v>5865</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03641954265221981</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1491232278392821</v>
+        <v>0.2126797507417551</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4560</v>
+        <v>4957</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009741566226065408</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04423121711665235</v>
+        <v>0.04808253644738526</v>
       </c>
     </row>
     <row r="12">
@@ -4445,7 +4445,7 @@
         <v>73366</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68955</v>
+        <v>68705</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>75519</v>
@@ -4454,7 +4454,7 @@
         <v>0.9714906490265679</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9130759845275954</v>
+        <v>0.9097698951277212</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -4466,7 +4466,7 @@
         <v>26572</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23464</v>
+        <v>21711</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>27576</v>
@@ -4475,7 +4475,7 @@
         <v>0.9635804573477802</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8508767721607178</v>
+        <v>0.7873202492582441</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -4487,19 +4487,19 @@
         <v>99939</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>94233</v>
+        <v>94695</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>102092</v>
+        <v>102078</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9693748164134122</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.914034379106718</v>
+        <v>0.9185125558287793</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9902573524306113</v>
+        <v>0.9901272361290561</v>
       </c>
     </row>
     <row r="13">
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5155</v>
+        <v>4119</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01073532421654838</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0570915526277503</v>
+        <v>0.04562014341772466</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4862</v>
+        <v>4827</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006662716428265099</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03341968507362243</v>
+        <v>0.03317735669789412</v>
       </c>
     </row>
     <row r="15">
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4593</v>
+        <v>5528</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01633514557061699</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08321837033964001</v>
+        <v>0.1001637774262124</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4596</v>
+        <v>5017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006196984807509199</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03159380758194995</v>
+        <v>0.03448226843320858</v>
       </c>
     </row>
     <row r="17">
@@ -4764,7 +4764,7 @@
         <v>89325</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85139</v>
+        <v>86175</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>90294</v>
@@ -4773,7 +4773,7 @@
         <v>0.9892646757834516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9429084473722552</v>
+        <v>0.9543798565822752</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>54291</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50600</v>
+        <v>49665</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>55193</v>
@@ -4794,7 +4794,7 @@
         <v>0.983664854429383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9167816296603599</v>
+        <v>0.8998362225737876</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4806,7 +4806,7 @@
         <v>143616</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>138946</v>
+        <v>139033</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>145487</v>
@@ -4815,7 +4815,7 @@
         <v>0.9871402987642257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.955042562001022</v>
+        <v>0.9556384871881273</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8447</v>
+        <v>8539</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05672891549347254</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1836590228604547</v>
+        <v>0.1856541899319843</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8921</v>
+        <v>8269</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01926201621315775</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06585793445835242</v>
+        <v>0.06104611114618456</v>
       </c>
     </row>
     <row r="20">
@@ -5080,7 +5080,7 @@
         <v>43383</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37545</v>
+        <v>37453</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>45992</v>
@@ -5089,7 +5089,7 @@
         <v>0.9432710845065274</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8163409771395455</v>
+        <v>0.8143458100680154</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>132844</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126532</v>
+        <v>127184</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>135453</v>
@@ -5110,7 +5110,7 @@
         <v>0.9807379837868423</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9341420655416475</v>
+        <v>0.9389538888538154</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3760</v>
+        <v>4551</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03555727073877452</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1507377536433264</v>
+        <v>0.1824793500574952</v>
       </c>
     </row>
     <row r="25">
@@ -5380,7 +5380,7 @@
         <v>24054</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21181</v>
+        <v>20390</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>24941</v>
@@ -5389,7 +5389,7 @@
         <v>0.9644427292612254</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8492622463566734</v>
+        <v>0.8175206499425047</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -5484,19 +5484,19 @@
         <v>9249</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4839</v>
+        <v>4655</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15370</v>
+        <v>15744</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2144643640158888</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1121999969832347</v>
+        <v>0.1079439721544616</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3563812036972733</v>
+        <v>0.3650666546638754</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -5505,19 +5505,19 @@
         <v>7588</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3783</v>
+        <v>3889</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11347</v>
+        <v>11406</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5015601882256621</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2500601112813987</v>
+        <v>0.2570388543703467</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7499927864694631</v>
+        <v>0.7539006877448919</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -5526,19 +5526,19 @@
         <v>16837</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10749</v>
+        <v>10521</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23902</v>
+        <v>24471</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2890238885673974</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1845195384481655</v>
+        <v>0.1806009665861973</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4102857479107392</v>
+        <v>0.4200546794086086</v>
       </c>
     </row>
     <row r="30">
@@ -5649,19 +5649,19 @@
         <v>33878</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>27757</v>
+        <v>27383</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38288</v>
+        <v>38472</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7855356359841112</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6436187963027267</v>
+        <v>0.6349333453361246</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8878000030167655</v>
+        <v>0.8920560278455387</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -5670,19 +5670,19 @@
         <v>7541</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3782</v>
+        <v>3723</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11346</v>
+        <v>11240</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4984398117743379</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.250007213530537</v>
+        <v>0.2460993122551081</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7499398887186013</v>
+        <v>0.7429611456296533</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -5691,19 +5691,19 @@
         <v>41419</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>34354</v>
+        <v>33785</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>47507</v>
+        <v>47735</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7109761114326026</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.589714252089261</v>
+        <v>0.5799453205913913</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8154804615518345</v>
+        <v>0.8193990334138027</v>
       </c>
     </row>
     <row r="33">
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7719</v>
+        <v>8571</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008924118530412941</v>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0318406539282148</v>
+        <v>0.03535588172590225</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7595</v>
+        <v>6607</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005198064659741499</v>
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01824739709680601</v>
+        <v>0.01587504947136473</v>
       </c>
     </row>
     <row r="35">
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5688</v>
+        <v>4684</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005347079741374666</v>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03273306836940845</v>
+        <v>0.02695147088257838</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4587</v>
+        <v>4710</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.002232546228430251</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01102209370690003</v>
+        <v>0.01131620311002409</v>
       </c>
     </row>
     <row r="36">
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8330</v>
+        <v>7802</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009064004227199413</v>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03436068170754704</v>
+        <v>0.03218210772072907</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4783</v>
+        <v>6384</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00545335256251672</v>
@@ -5954,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02752141762044306</v>
+        <v>0.03673391882319012</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -5963,19 +5963,19 @@
         <v>3145</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8580</v>
+        <v>8452</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.007556462326563686</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002270401355441769</v>
+        <v>0.002272014996707538</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02061469685475597</v>
+        <v>0.02030637884504543</v>
       </c>
     </row>
     <row r="37">
@@ -5992,19 +5992,19 @@
         <v>238070</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>230463</v>
+        <v>231242</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>241334</v>
+        <v>241335</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9820118772423877</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9506337999125549</v>
+        <v>0.9538462196889543</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9954755310481891</v>
+        <v>0.9954811079858412</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>169</v>
@@ -6013,7 +6013,7 @@
         <v>171901</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>166088</v>
+        <v>167088</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>173778</v>
@@ -6022,7 +6022,7 @@
         <v>0.9891995676961086</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9557468646561077</v>
+        <v>0.9615000909580783</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -6034,19 +6034,19 @@
         <v>409971</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>403063</v>
+        <v>403509</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>413472</v>
+        <v>414005</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9850129267852645</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9684147807748982</v>
+        <v>0.9694857223690359</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.993423663689499</v>
+        <v>0.9947057570608101</v>
       </c>
     </row>
     <row r="38">
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>7100</v>
+        <v>7210</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02125868134494664</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07400797077215884</v>
+        <v>0.07515844058025681</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -6159,19 +6159,19 @@
         <v>4051</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9512</v>
+        <v>9266</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1004600719572843</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02473340521244533</v>
+        <v>0.02481837426343537</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2358662957225724</v>
+        <v>0.2297561832711099</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>6</v>
@@ -6180,19 +6180,19 @@
         <v>6091</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2837</v>
+        <v>2174</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>12749</v>
+        <v>12411</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04469964343132105</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02082226085990382</v>
+        <v>0.01595395615754315</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.09356306329271501</v>
+        <v>0.09108426605324396</v>
       </c>
     </row>
     <row r="40">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4686</v>
+        <v>4762</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.009598811247606283</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04885180763276315</v>
+        <v>0.04963795338177708</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5010</v>
+        <v>4911</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02469159615831174</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.124238804312092</v>
+        <v>0.1217635983426453</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6652</v>
+        <v>6861</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01406577068019153</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04881832227217645</v>
+        <v>0.05035272781948044</v>
       </c>
     </row>
     <row r="42">
@@ -6327,19 +6327,19 @@
         <v>92972</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>87829</v>
+        <v>87623</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>95007</v>
+        <v>95020</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9691425074074471</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9155328530770991</v>
+        <v>0.9133841911290607</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9903536728199369</v>
+        <v>0.9904957784840552</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>32</v>
@@ -6348,19 +6348,19 @@
         <v>35282</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>29726</v>
+        <v>29750</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>38438</v>
+        <v>38406</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8748483318844039</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.7370899021680465</v>
+        <v>0.7376932763117195</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9531018486399753</v>
+        <v>0.9523126999009411</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>121</v>
@@ -6369,19 +6369,19 @@
         <v>128254</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>121231</v>
+        <v>120976</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>132409</v>
+        <v>132362</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9412345858884874</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8896966331174321</v>
+        <v>0.8878255918376718</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9717333170294611</v>
+        <v>0.9713837463284739</v>
       </c>
     </row>
     <row r="43">
@@ -6473,19 +6473,19 @@
         <v>15459</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9029</v>
+        <v>8652</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>24610</v>
+        <v>24916</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02147155617711144</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01254042556136009</v>
+        <v>0.01201688388150848</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03418152233351046</v>
+        <v>0.03460600799849149</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>15</v>
@@ -6494,19 +6494,19 @@
         <v>15136</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>8518</v>
+        <v>8285</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23981</v>
+        <v>25037</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.04078484117717959</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02295364968821854</v>
+        <v>0.02232445119182053</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.06462110806889715</v>
+        <v>0.06746677061367889</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>30</v>
@@ -6515,19 +6515,19 @@
         <v>30595</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>20644</v>
+        <v>20447</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>42981</v>
+        <v>42788</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02804044069960105</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01892062692183422</v>
+        <v>0.01873956625332608</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.03939245783090471</v>
+        <v>0.0392156107685268</v>
       </c>
     </row>
     <row r="45">
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>6220</v>
+        <v>6663</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.001548642211853906</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0086392698589074</v>
+        <v>0.009253775466407271</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>4939</v>
+        <v>5497</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.002503865902399354</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.01330791578598149</v>
+        <v>0.01481329954052229</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>2</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>7019</v>
+        <v>6621</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001873535367850789</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.006432564072608599</v>
+        <v>0.006068190581464113</v>
       </c>
     </row>
     <row r="46">
@@ -6615,19 +6615,19 @@
         <v>6701</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2341</v>
+        <v>2464</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>15076</v>
+        <v>14380</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.009306871106859516</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.003250759346658068</v>
+        <v>0.00342216037764511</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02093974303039118</v>
+        <v>0.01997222947010663</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -6636,19 +6636,19 @@
         <v>3849</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>9751</v>
+        <v>8903</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01037256743198042</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.002678201704657663</v>
+        <v>0.002664311752428165</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02627443916318788</v>
+        <v>0.02398951577094148</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>10</v>
@@ -6657,19 +6657,19 @@
         <v>10550</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>5264</v>
+        <v>5410</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>18187</v>
+        <v>18931</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.009669338501491554</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.004824640205985623</v>
+        <v>0.004958353069407512</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01666882847892996</v>
+        <v>0.01735041849102039</v>
       </c>
     </row>
     <row r="47">
@@ -6686,19 +6686,19 @@
         <v>696719</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>686055</v>
+        <v>685520</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>705396</v>
+        <v>705471</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9676729305041751</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9528623611089035</v>
+        <v>0.9521194647652205</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.979725335235871</v>
+        <v>0.9798294165872821</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>348</v>
@@ -6707,19 +6707,19 @@
         <v>351194</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>341228</v>
+        <v>341956</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>358901</v>
+        <v>358907</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9463387254884407</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.91948518277821</v>
+        <v>0.9214464586472779</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9671056458100145</v>
+        <v>0.967122324480654</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>991</v>
@@ -6728,19 +6728,19 @@
         <v>1047913</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1034016</v>
+        <v>1035009</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1059135</v>
+        <v>1059876</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9604166854310566</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.947680524106963</v>
+        <v>0.9485907300687869</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9707024795278002</v>
+        <v>0.9713815377007544</v>
       </c>
     </row>
     <row r="48">
